--- a/new_data.xlsx
+++ b/new_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>查询条件</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>问题</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +506,16 @@
           <t>时间、product_type、product_id、measure_tage、step_no、measure_tage&amp;step_no&amp;sub_step、Lot、Wafer、measure_item、lot_type、chart_type</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.查看某一MET参数均值的趋势</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MET、INLINE、量测、参数、Parameter、item、汇总、均值、中位数、标准差、统计值</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +548,17 @@
           <t>时间、product_type、product_id、measure_tage、step_no、measure_tage&amp;step_no&amp;sub_step、Lot、Wafer、measure_item、lot_type、chart_type</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.查看某一个MET parameter过去2个月的Xbar-R/S Trend及Rawdata chart；
+2.查看某一个量测参数，某一wafer的sitemap叠图和gallery</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MET、INLINE、量测、参数、Parameter、item、汇总、明细、Raw、Rawdata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +591,17 @@
           <t>时间、product_type、product_id、layer、stage、eqp_id、Lot、Wafer</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.查看过去两个月，某款产品的DEFECT MAP
+2.查看过去一周，某个Layer的DEFECT趋势</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DEFECT、缺陷、DEFECT MAP、Total DEFECT、DEFECT趋势、True Count、DEFECT Density、DD</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +634,17 @@
           <t>时间、product_type、product_id、layer、Lot、Wafer、class_type、class_name、class_code</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.查看过去两个月，某款产品的code是A的趋势
+2.查看过去一周，某个Layer的rough bin是B的趋势</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DEFECT、缺陷、Rough bin、Fine Bin、Manual Bin、Class、Code、缺陷类别</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +677,17 @@
           <t>时间、product_type、product_id、layer、Lot、Wafer、stage、parameter_type、chart_id、lot_type、measure_step_seq</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.查看过去两个月，某款产品的chart是B的趋势
+2.查看过去一周，某个Layer的chart是B的趋势</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DEFECT、缺陷、chart</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -638,7 +702,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rawdata_kt</t>
+          <t>rawdata_ktC7:E7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,6 +718,17 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>时间、product_type、product_id、layer、test_id、Lot、Wafer、rough_bin_class&amp;bin_name、class_number&amp;class_name、fine_class&amp;fine_number</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.查看过去两个月，某款产品的DEFECT MAP
+2.查看过去一周，某个Layer，某个wafer的MAP</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DEFECT、缺陷 MAP、code Map、坐标、明细、raw、rawdata</t>
         </is>
       </c>
     </row>
@@ -688,6 +763,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.查看过去一个月，某款产品，bin1的数据</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、BIN、Harbin、Bin Code、softbin</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +805,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.查看过去一个月，某款产品，bin1的数据宽表</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、、BIN、Harbin、Bin Code、softbin、wide、宽表</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +847,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.查看某款产品，过去一周某一参数的明细</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、parameter、test_item、参数、测试参数</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,6 +889,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.查看某一测试项的bb trend</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +931,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.查看某一测试项的测试时间趋势</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,6 +973,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.查看某一产品，过去一月某一funcbin的趋势</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、funcbin。Fail item</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -880,6 +1015,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.查看某一测试项，过去一周，某一参数的fail wl趋势</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -912,6 +1057,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>暂时用不到</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -944,6 +1099,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>暂时用不到</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,6 +1141,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.查看某一测试项，过去一周，某一参数的fail pcoll趋势</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1008,6 +1183,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.查看某一测试项，过去一周，某一参数的fail pcoll趋势</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1040,6 +1225,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.查看某一测试项，过去一周，某一参数的fail pcoll趋势</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1072,6 +1267,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer 某一测试项的bb map</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1104,6 +1309,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer 某一测试项的bb map</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1136,6 +1351,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer 某一测试项的bb map</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1168,6 +1393,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer 某一测试项的bb map</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1200,6 +1435,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer的vt分布</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1232,6 +1477,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer的vt分布</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1264,6 +1519,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer的vt分布</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1296,6 +1561,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer的vt分布</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1328,6 +1603,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer的vt分布</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1360,6 +1645,16 @@
           <t>start_time、product_type、product_id、grade、product_ind、test_step、bin、parameter、test_item、rework、lot、wafer、recipe</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.查看某一wafer的vt分布</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CP 、WS、Wafer Sort、</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1392,6 +1687,16 @@
           <t>时间、product_type、product_id、step_type、stage&amp;step_no&amp;substep、lot_type、loop、module、stage、step_no、eqp、chamber、subchamber、lot、wafer</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>查看最近两周A站点的wafer履历</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>history、履历、run 货历史、wafer、qtime</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1424,6 +1729,16 @@
           <t>时间、product_type、product_id、step_type、stage&amp;step_no&amp;substep、lot_type、loop、module、stage、step_no、eqp、chamber、subchamber、lot、wafer</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>查看最近两周A站点的lot履历</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>history、履历、run 货历史、lot</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1456,6 +1771,16 @@
           <t>时间、stage、abnormal_type、abnormal_no、wafer</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>查询某一wafer触发了哪些异常标签</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>异常标签、pcrb、rrc、drb、mrb</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1488,6 +1813,16 @@
           <t>时间、product_type、product_id、stage、stage&amp;step_no、indicatorname、type、module、eqp_group、eqp_id、chamber、recipe、lot、wafer</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>查看某一机台最近一天某一indicator参数的趋势</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FDC、indicator</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1520,6 +1855,16 @@
           <t>时间、product_type、product_id、parameter、recipe_name、parameter_type、limit_file&amp;site_tested、program_name</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>查看某一WAT参数过去一周均值的趋势</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>WAT、电性测试、均值、中位数、标准差</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1552,6 +1897,16 @@
           <t>时间、product_type、product_id、parameter、recipe_name、parameter_type、limit_file&amp;site_tested、program_name</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>show 某一个WAT parameter多片wafer的sitemap叠图和gallery</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>WAT、电性测试、map、明细、raw</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1584,6 +1939,16 @@
           <t>时间、module、measure_item、eqp</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.查看某一Offline参数均值的趋势</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>offline、met offline、均值、中位数、标准差</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1616,6 +1981,17 @@
           <t>时间、module、measure_item、eqp</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.查看某一个Offline parameter过去2个月的Xbar-R/S Trend及Rawdata chart；
+2.查看某一个Offline 量测参数，某一wafer的sitemap叠图和gallery</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>offline、met offline、map、明细、raw</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1648,6 +2024,16 @@
           <t>时间、产品、lot_no、fab_lot、fab_wafer_no、test_step</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>查看某一lot对应的fablot和fabwafer</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1680,6 +2066,16 @@
           <t>时间、产品、lot_no、wafer_lot_no、tout_no、tester_no、test_step、test_program、retest_flag、ewo</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一站点的最近一个月的lot良率趋势</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1712,6 +2108,16 @@
           <t>时间、产品、lot_no、wafer_lot_no、tout_no、tester_no、test_step、test_program、retest_flag、ewo</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一站点的最近一个月的lot良率趋势</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1744,6 +2150,16 @@
           <t>时间、产品、lot_no、wafer_lot_no、tout_no、tester_no、test_step、test_program、ewo</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一站点的最近一个月的lot final良率趋势</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1776,6 +2192,16 @@
           <t>时间、产品、lot_no、test_flag、test_step、hard_bin</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>查看某一lot，hardbin分布</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1808,6 +2234,16 @@
           <t>时间、产品、lot_no、test_step、hard_bin</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>查看某一lot，final的hardbin分布</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1840,6 +2276,16 @@
           <t>时间、产品、lot_no、test_flag、test_step、tb_name</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>查看某一lot，softbin分布</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1872,6 +2318,16 @@
           <t>时间、产品、lot_no、test_step、tb_name</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>查看某一lot，final的softbin分布</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1904,6 +2360,16 @@
           <t>时间、产品、lot_no、fab_lot、fab_wafer_no、test_step、tb_name</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>查看某一lot，对应fab lot的hardbin分布</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1936,6 +2402,16 @@
           <t>时间、产品、lot_no、test_step、tb_name</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>查看某一lot的hardbin Summary</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1968,6 +2444,16 @@
           <t>时间、产品、tb_seq、tb_num、tb_name</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一参数最近一周的平均值趋势</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2000,6 +2486,16 @@
           <t>时间、产品、lot_no、test_step、parameter</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一参数最近一周的ft lot平均值趋势</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2032,6 +2528,16 @@
           <t>时间、产品、lot_no、fab_lot、fab_wafer_no、test_step、parameter</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一参数最近一周的fab wafer平均值趋势</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2064,6 +2570,16 @@
           <t>时间、产品、lot_no、test_step、parameter</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>查看某一产品，某一参数最近一周的ft lot平均值趋势</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2096,6 +2612,16 @@
           <t>时间、产品、lot_no、fab_lot、fab_wafer_no、test_step、tb_name</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>查看某一lot，对应的fab bin map</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2128,6 +2654,16 @@
           <t>时间、产品、lot_no、test_step、tb_name</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>查看某一lot的dut map</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2160,6 +2696,16 @@
           <t>时间、产品、tb_seq、tb_num、tb_name</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>查看某一lot ft siteLevel明细数据</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2192,6 +2738,16 @@
           <t>时间、产品、lot_no、fab_lot、fab_wafer_no、test_step、parameter</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>查看某一lot ft siteLevel明细数据</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2224,6 +2780,16 @@
           <t>时间、产品、lot_no、test_step、parameter</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>查看某一lot ft siteLevel明细数据</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FT 、Final Test</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2256,6 +2822,16 @@
           <t>产品、rule_name、lot、wafer</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>查看某一wafer触发了哪些ink 规则</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ink、auto ink</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2288,6 +2864,16 @@
           <t>时间、产品、rule_name、lot、wafer</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>查看某一wafer被ink的明细</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ink、auto ink</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2320,6 +2906,16 @@
           <t>时间、产品、CP_recipe、lot、wafer</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>查看某wafer的Downgrade信息</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>downgrade、降级</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2352,6 +2948,16 @@
           <t>时间、产品、lot、wafer</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>查看某wafer的Downgrade明细</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>downgrade、降级</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2382,6 +2988,16 @@
       <c r="F61" t="inlineStr">
         <is>
           <t>module、material_type、material_name</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>查看某时间段/module/eqp 某lot的水化气上料信息</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>fac、水化气、上下料</t>
         </is>
       </c>
     </row>
